--- a/传感器/连续物位测量/导播雷达物位传感器/迈安德物料定义-01属性表-外购设备-导播雷达物位传感器.xlsx
+++ b/传感器/连续物位测量/导播雷达物位传感器/迈安德物料定义-01属性表-外购设备-导播雷达物位传感器.xlsx
@@ -28,12 +28,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -48,8 +58,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -365,13 +377,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="9"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="30"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+    <col customWidth="1" max="7" min="7" width="80"/>
+    <col customWidth="1" max="8" min="8" width="50"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -404,12 +426,12 @@
           <t>属性类型</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>翻译脚本</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>创建属性脚本</t>
         </is>
@@ -445,11 +467,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E2," = ",B2,)</f>
         <v/>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <f>CONCATENATE("#"&amp;B2&amp;"
 add attribute "&amp;E2&amp;"
   type "&amp;F2&amp;"
@@ -493,11 +515,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E3," = ",B3,)</f>
         <v/>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <f>CONCATENATE("#"&amp;B3&amp;"
 add attribute "&amp;E3&amp;"
   type "&amp;F3&amp;"
@@ -541,11 +563,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E4," = ",B4,)</f>
         <v/>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <f>CONCATENATE("#"&amp;B4&amp;"
 add attribute "&amp;E4&amp;"
   type "&amp;F4&amp;"
@@ -589,11 +611,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E5," = ",B5,)</f>
         <v/>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f>CONCATENATE("#"&amp;B5&amp;"
 add attribute "&amp;E5&amp;"
   type "&amp;F5&amp;"
@@ -637,11 +659,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E6," = ",B6,)</f>
         <v/>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f>CONCATENATE("#"&amp;B6&amp;"
 add attribute "&amp;E6&amp;"
   type "&amp;F6&amp;"
@@ -685,11 +707,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E7," = ",B7,)</f>
         <v/>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f>CONCATENATE("#"&amp;B7&amp;"
 add attribute "&amp;E7&amp;"
   type "&amp;F7&amp;"
@@ -733,11 +755,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E8," = ",B8,)</f>
         <v/>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f>CONCATENATE("#"&amp;B8&amp;"
 add attribute "&amp;E8&amp;"
   type "&amp;F8&amp;"
@@ -781,11 +803,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E9," = ",B9,)</f>
         <v/>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <f>CONCATENATE("#"&amp;B9&amp;"
 add attribute "&amp;E9&amp;"
   type "&amp;F9&amp;"
@@ -829,11 +851,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E10," = ",B10,)</f>
         <v/>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <f>CONCATENATE("#"&amp;B10&amp;"
 add attribute "&amp;E10&amp;"
   type "&amp;F10&amp;"
@@ -877,11 +899,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E11," = ",B11,)</f>
         <v/>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f>CONCATENATE("#"&amp;B11&amp;"
 add attribute "&amp;E11&amp;"
   type "&amp;F11&amp;"
@@ -925,11 +947,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E12," = ",B12,)</f>
         <v/>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <f>CONCATENATE("#"&amp;B12&amp;"
 add attribute "&amp;E12&amp;"
   type "&amp;F12&amp;"
@@ -973,11 +995,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E13," = ",B13,)</f>
         <v/>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <f>CONCATENATE("#"&amp;B13&amp;"
 add attribute "&amp;E13&amp;"
   type "&amp;F13&amp;"
@@ -1021,11 +1043,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E14," = ",B14,)</f>
         <v/>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <f>CONCATENATE("#"&amp;B14&amp;"
 add attribute "&amp;E14&amp;"
   type "&amp;F14&amp;"
@@ -1069,11 +1091,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E15," = ",B15,)</f>
         <v/>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <f>CONCATENATE("#"&amp;B15&amp;"
 add attribute "&amp;E15&amp;"
   type "&amp;F15&amp;"
@@ -1086,6 +1108,10 @@
 mod prog eServiceSchemaVariableMapping.tcl add property attribute_"&amp;E15&amp;" to att "&amp;E15&amp;";")</f>
         <v/>
       </c>
+    </row>
+    <row r="16">
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1098,13 +1124,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="9"/>
+    <col customWidth="1" max="2" min="2" width="6"/>
+    <col customWidth="1" max="3" min="3" width="28"/>
+    <col customWidth="1" max="4" min="4" width="37"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="6" min="6" width="40"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
+    <col customWidth="1" max="8" min="8" width="100"/>
+    <col customWidth="1" max="9" min="9" width="150"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1142,12 +1179,12 @@
           <t>值(不能有中文)</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Range值脚本</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Range值翻译</t>
         </is>
@@ -1188,11 +1225,11 @@
           <t>1181</t>
         </is>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <f>CONCATENATE(A2," ",D2," ",E2," ","="," ","'",G2,"'",";")</f>
         <v/>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <f>CONCATENATE("emxFramework.Range.",D2,,".",G2," ="," ",F2)</f>
         <v/>
       </c>
@@ -1232,11 +1269,11 @@
           <t>1178</t>
         </is>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <f>CONCATENATE(A3," ",D3," ",E3," ","="," ","'",G3,"'",";")</f>
         <v/>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <f>CONCATENATE("emxFramework.Range.",D3,,".",G3," ="," ",F3)</f>
         <v/>
       </c>
@@ -1268,11 +1305,11 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4">
+      <c r="H4" s="1">
         <f>CONCATENATE(A4," ",D4," ",E4," ","="," ","'",G4,"'",";")</f>
         <v/>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <f>CONCATENATE("emxFramework.Range.",D4,,".",G4," ="," ",F4)</f>
         <v/>
       </c>
@@ -1312,11 +1349,11 @@
           <t>productline1</t>
         </is>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f>CONCATENATE(A5," ",D5," ",E5," ","="," ","'",G5,"'",";")</f>
         <v/>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <f>CONCATENATE("emxFramework.Range.",D5,,".",G5," ="," ",F5)</f>
         <v/>
       </c>
@@ -1356,11 +1393,11 @@
           <t>productline2</t>
         </is>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f>CONCATENATE(A6," ",D6," ",E6," ","="," ","'",G6,"'",";")</f>
         <v/>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <f>CONCATENATE("emxFramework.Range.",D6,,".",G6," ="," ",F6)</f>
         <v/>
       </c>
@@ -1400,11 +1437,11 @@
           <t>productline3</t>
         </is>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f>CONCATENATE(A7," ",D7," ",E7," ","="," ","'",G7,"'",";")</f>
         <v/>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <f>CONCATENATE("emxFramework.Range.",D7,,".",G7," ="," ",F7)</f>
         <v/>
       </c>
@@ -1444,11 +1481,11 @@
           <t>productline4</t>
         </is>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <f>CONCATENATE(A8," ",D8," ",E8," ","="," ","'",G8,"'",";")</f>
         <v/>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <f>CONCATENATE("emxFramework.Range.",D8,,".",G8," ="," ",F8)</f>
         <v/>
       </c>
@@ -1480,11 +1517,11 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9">
+      <c r="H9" s="1">
         <f>CONCATENATE(A9," ",D9," ",E9," ","="," ","'",G9,"'",";")</f>
         <v/>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <f>CONCATENATE("emxFramework.Range.",D9,,".",G9," ="," ",F9)</f>
         <v/>
       </c>
@@ -1524,11 +1561,11 @@
           <t>processconnection1</t>
         </is>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <f>CONCATENATE(A10," ",D10," ",E10," ","="," ","'",G10,"'",";")</f>
         <v/>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <f>CONCATENATE("emxFramework.Range.",D10,,".",G10," ="," ",F10)</f>
         <v/>
       </c>
@@ -1568,11 +1605,11 @@
           <t>processconnection2</t>
         </is>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <f>CONCATENATE(A11," ",D11," ",E11," ","="," ","'",G11,"'",";")</f>
         <v/>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <f>CONCATENATE("emxFramework.Range.",D11,,".",G11," ="," ",F11)</f>
         <v/>
       </c>
@@ -1612,11 +1649,11 @@
           <t>processconnection3</t>
         </is>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <f>CONCATENATE(A12," ",D12," ",E12," ","="," ","'",G12,"'",";")</f>
         <v/>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <f>CONCATENATE("emxFramework.Range.",D12,,".",G12," ="," ",F12)</f>
         <v/>
       </c>
@@ -1656,11 +1693,11 @@
           <t>processconnection4</t>
         </is>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <f>CONCATENATE(A13," ",D13," ",E13," ","="," ","'",G13,"'",";")</f>
         <v/>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <f>CONCATENATE("emxFramework.Range.",D13,,".",G13," ="," ",F13)</f>
         <v/>
       </c>
@@ -1700,11 +1737,11 @@
           <t>processconnection5</t>
         </is>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <f>CONCATENATE(A14," ",D14," ",E14," ","="," ","'",G14,"'",";")</f>
         <v/>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <f>CONCATENATE("emxFramework.Range.",D14,,".",G14," ="," ",F14)</f>
         <v/>
       </c>
@@ -1744,11 +1781,11 @@
           <t>processconnection6</t>
         </is>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <f>CONCATENATE(A15," ",D15," ",E15," ","="," ","'",G15,"'",";")</f>
         <v/>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <f>CONCATENATE("emxFramework.Range.",D15,,".",G15," ="," ",F15)</f>
         <v/>
       </c>
@@ -1780,11 +1817,11 @@
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16">
+      <c r="H16" s="1">
         <f>CONCATENATE(A16," ",D16," ",E16," ","="," ","'",G16,"'",";")</f>
         <v/>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <f>CONCATENATE("emxFramework.Range.",D16,,".",G16," ="," ",F16)</f>
         <v/>
       </c>
@@ -1824,11 +1861,11 @@
           <t>probe1</t>
         </is>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <f>CONCATENATE(A17," ",D17," ",E17," ","="," ","'",G17,"'",";")</f>
         <v/>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <f>CONCATENATE("emxFramework.Range.",D17,,".",G17," ="," ",F17)</f>
         <v/>
       </c>
@@ -1868,11 +1905,11 @@
           <t>probe2</t>
         </is>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <f>CONCATENATE(A18," ",D18," ",E18," ","="," ","'",G18,"'",";")</f>
         <v/>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <f>CONCATENATE("emxFramework.Range.",D18,,".",G18," ="," ",F18)</f>
         <v/>
       </c>
@@ -1912,11 +1949,11 @@
           <t>probe3</t>
         </is>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <f>CONCATENATE(A19," ",D19," ",E19," ","="," ","'",G19,"'",";")</f>
         <v/>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <f>CONCATENATE("emxFramework.Range.",D19,,".",G19," ="," ",F19)</f>
         <v/>
       </c>
@@ -1956,11 +1993,11 @@
           <t>probe4</t>
         </is>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <f>CONCATENATE(A20," ",D20," ",E20," ","="," ","'",G20,"'",";")</f>
         <v/>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <f>CONCATENATE("emxFramework.Range.",D20,,".",G20," ="," ",F20)</f>
         <v/>
       </c>
@@ -1992,11 +2029,11 @@
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21">
+      <c r="H21" s="1">
         <f>CONCATENATE(A21," ",D21," ",E21," ","="," ","'",G21,"'",";")</f>
         <v/>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <f>CONCATENATE("emxFramework.Range.",D21,,".",G21," ="," ",F21)</f>
         <v/>
       </c>
@@ -2036,11 +2073,11 @@
           <t>probelength1</t>
         </is>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <f>CONCATENATE(A22," ",D22," ",E22," ","="," ","'",G22,"'",";")</f>
         <v/>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <f>CONCATENATE("emxFramework.Range.",D22,,".",G22," ="," ",F22)</f>
         <v/>
       </c>
@@ -2080,11 +2117,11 @@
           <t>probelength2</t>
         </is>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <f>CONCATENATE(A23," ",D23," ",E23," ","="," ","'",G23,"'",";")</f>
         <v/>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <f>CONCATENATE("emxFramework.Range.",D23,,".",G23," ="," ",F23)</f>
         <v/>
       </c>
@@ -2124,11 +2161,11 @@
           <t>probelength3</t>
         </is>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <f>CONCATENATE(A24," ",D24," ",E24," ","="," ","'",G24,"'",";")</f>
         <v/>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <f>CONCATENATE("emxFramework.Range.",D24,,".",G24," ="," ",F24)</f>
         <v/>
       </c>
@@ -2168,11 +2205,11 @@
           <t>probelength4</t>
         </is>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <f>CONCATENATE(A25," ",D25," ",E25," ","="," ","'",G25,"'",";")</f>
         <v/>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <f>CONCATENATE("emxFramework.Range.",D25,,".",G25," ="," ",F25)</f>
         <v/>
       </c>
@@ -2212,11 +2249,11 @@
           <t>probelength5</t>
         </is>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <f>CONCATENATE(A26," ",D26," ",E26," ","="," ","'",G26,"'",";")</f>
         <v/>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <f>CONCATENATE("emxFramework.Range.",D26,,".",G26," ="," ",F26)</f>
         <v/>
       </c>
@@ -2256,11 +2293,11 @@
           <t>probelength6</t>
         </is>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <f>CONCATENATE(A27," ",D27," ",E27," ","="," ","'",G27,"'",";")</f>
         <v/>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <f>CONCATENATE("emxFramework.Range.",D27,,".",G27," ="," ",F27)</f>
         <v/>
       </c>
@@ -2300,11 +2337,11 @@
           <t>probelength7</t>
         </is>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <f>CONCATENATE(A28," ",D28," ",E28," ","="," ","'",G28,"'",";")</f>
         <v/>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <f>CONCATENATE("emxFramework.Range.",D28,,".",G28," ="," ",F28)</f>
         <v/>
       </c>
@@ -2344,11 +2381,11 @@
           <t>probelength8</t>
         </is>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <f>CONCATENATE(A29," ",D29," ",E29," ","="," ","'",G29,"'",";")</f>
         <v/>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <f>CONCATENATE("emxFramework.Range.",D29,,".",G29," ="," ",F29)</f>
         <v/>
       </c>
@@ -2388,11 +2425,11 @@
           <t>probelength9</t>
         </is>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <f>CONCATENATE(A30," ",D30," ",E30," ","="," ","'",G30,"'",";")</f>
         <v/>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <f>CONCATENATE("emxFramework.Range.",D30,,".",G30," ="," ",F30)</f>
         <v/>
       </c>
@@ -2432,11 +2469,11 @@
           <t>probelength10</t>
         </is>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <f>CONCATENATE(A31," ",D31," ",E31," ","="," ","'",G31,"'",";")</f>
         <v/>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <f>CONCATENATE("emxFramework.Range.",D31,,".",G31," ="," ",F31)</f>
         <v/>
       </c>
@@ -2476,11 +2513,11 @@
           <t>probelength11</t>
         </is>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <f>CONCATENATE(A32," ",D32," ",E32," ","="," ","'",G32,"'",";")</f>
         <v/>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <f>CONCATENATE("emxFramework.Range.",D32,,".",G32," ="," ",F32)</f>
         <v/>
       </c>
@@ -2520,11 +2557,11 @@
           <t>probelength12</t>
         </is>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <f>CONCATENATE(A33," ",D33," ",E33," ","="," ","'",G33,"'",";")</f>
         <v/>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <f>CONCATENATE("emxFramework.Range.",D33,,".",G33," ="," ",F33)</f>
         <v/>
       </c>
@@ -2564,11 +2601,11 @@
           <t>probelength13</t>
         </is>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <f>CONCATENATE(A34," ",D34," ",E34," ","="," ","'",G34,"'",";")</f>
         <v/>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <f>CONCATENATE("emxFramework.Range.",D34,,".",G34," ="," ",F34)</f>
         <v/>
       </c>
@@ -2608,11 +2645,11 @@
           <t>probelength14</t>
         </is>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <f>CONCATENATE(A35," ",D35," ",E35," ","="," ","'",G35,"'",";")</f>
         <v/>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <f>CONCATENATE("emxFramework.Range.",D35,,".",G35," ="," ",F35)</f>
         <v/>
       </c>
@@ -2652,11 +2689,11 @@
           <t>probelength15</t>
         </is>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <f>CONCATENATE(A36," ",D36," ",E36," ","="," ","'",G36,"'",";")</f>
         <v/>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <f>CONCATENATE("emxFramework.Range.",D36,,".",G36," ="," ",F36)</f>
         <v/>
       </c>
@@ -2696,11 +2733,11 @@
           <t>probelength16</t>
         </is>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <f>CONCATENATE(A37," ",D37," ",E37," ","="," ","'",G37,"'",";")</f>
         <v/>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <f>CONCATENATE("emxFramework.Range.",D37,,".",G37," ="," ",F37)</f>
         <v/>
       </c>
@@ -2740,11 +2777,11 @@
           <t>probelength17</t>
         </is>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <f>CONCATENATE(A38," ",D38," ",E38," ","="," ","'",G38,"'",";")</f>
         <v/>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <f>CONCATENATE("emxFramework.Range.",D38,,".",G38," ="," ",F38)</f>
         <v/>
       </c>
@@ -2784,11 +2821,11 @@
           <t>probelength18</t>
         </is>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <f>CONCATENATE(A39," ",D39," ",E39," ","="," ","'",G39,"'",";")</f>
         <v/>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <f>CONCATENATE("emxFramework.Range.",D39,,".",G39," ="," ",F39)</f>
         <v/>
       </c>
@@ -2828,11 +2865,11 @@
           <t>probelength19</t>
         </is>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <f>CONCATENATE(A40," ",D40," ",E40," ","="," ","'",G40,"'",";")</f>
         <v/>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <f>CONCATENATE("emxFramework.Range.",D40,,".",G40," ="," ",F40)</f>
         <v/>
       </c>
@@ -2872,11 +2909,11 @@
           <t>probelength20</t>
         </is>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <f>CONCATENATE(A41," ",D41," ",E41," ","="," ","'",G41,"'",";")</f>
         <v/>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <f>CONCATENATE("emxFramework.Range.",D41,,".",G41," ="," ",F41)</f>
         <v/>
       </c>
@@ -2916,11 +2953,11 @@
           <t>probelength21</t>
         </is>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <f>CONCATENATE(A42," ",D42," ",E42," ","="," ","'",G42,"'",";")</f>
         <v/>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <f>CONCATENATE("emxFramework.Range.",D42,,".",G42," ="," ",F42)</f>
         <v/>
       </c>
@@ -2952,11 +2989,11 @@
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43">
+      <c r="H43" s="1">
         <f>CONCATENATE(A43," ",D43," ",E43," ","="," ","'",G43,"'",";")</f>
         <v/>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <f>CONCATENATE("emxFramework.Range.",D43,,".",G43," ="," ",F43)</f>
         <v/>
       </c>
@@ -2996,11 +3033,11 @@
           <t>power1</t>
         </is>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <f>CONCATENATE(A44," ",D44," ",E44," ","="," ","'",G44,"'",";")</f>
         <v/>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <f>CONCATENATE("emxFramework.Range.",D44,,".",G44," ="," ",F44)</f>
         <v/>
       </c>
@@ -3032,11 +3069,11 @@
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45">
+      <c r="H45" s="1">
         <f>CONCATENATE(A45," ",D45," ",E45," ","="," ","'",G45,"'",";")</f>
         <v/>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <f>CONCATENATE("emxFramework.Range.",D45,,".",G45," ="," ",F45)</f>
         <v/>
       </c>
@@ -3076,11 +3113,11 @@
           <t>ouputsignal1</t>
         </is>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <f>CONCATENATE(A46," ",D46," ",E46," ","="," ","'",G46,"'",";")</f>
         <v/>
       </c>
-      <c r="I46">
+      <c r="I46" s="2">
         <f>CONCATENATE("emxFramework.Range.",D46,,".",G46," ="," ",F46)</f>
         <v/>
       </c>
@@ -3112,11 +3149,11 @@
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47">
+      <c r="H47" s="1">
         <f>CONCATENATE(A47," ",D47," ",E47," ","="," ","'",G47,"'",";")</f>
         <v/>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <f>CONCATENATE("emxFramework.Range.",D47,,".",G47," ="," ",F47)</f>
         <v/>
       </c>
@@ -3156,11 +3193,11 @@
           <t>cableentry1</t>
         </is>
       </c>
-      <c r="H48">
+      <c r="H48" s="1">
         <f>CONCATENATE(A48," ",D48," ",E48," ","="," ","'",G48,"'",";")</f>
         <v/>
       </c>
-      <c r="I48">
+      <c r="I48" s="2">
         <f>CONCATENATE("emxFramework.Range.",D48,,".",G48," ="," ",F48)</f>
         <v/>
       </c>
@@ -3200,11 +3237,11 @@
           <t>cableentry2</t>
         </is>
       </c>
-      <c r="H49">
+      <c r="H49" s="1">
         <f>CONCATENATE(A49," ",D49," ",E49," ","="," ","'",G49,"'",";")</f>
         <v/>
       </c>
-      <c r="I49">
+      <c r="I49" s="2">
         <f>CONCATENATE("emxFramework.Range.",D49,,".",G49," ="," ",F49)</f>
         <v/>
       </c>
@@ -3236,11 +3273,11 @@
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50">
+      <c r="H50" s="1">
         <f>CONCATENATE(A50," ",D50," ",E50," ","="," ","'",G50,"'",";")</f>
         <v/>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <f>CONCATENATE("emxFramework.Range.",D50,,".",G50," ="," ",F50)</f>
         <v/>
       </c>
@@ -3280,11 +3317,11 @@
           <t>displayoperation1</t>
         </is>
       </c>
-      <c r="H51">
+      <c r="H51" s="1">
         <f>CONCATENATE(A51," ",D51," ",E51," ","="," ","'",G51,"'",";")</f>
         <v/>
       </c>
-      <c r="I51">
+      <c r="I51" s="2">
         <f>CONCATENATE("emxFramework.Range.",D51,,".",G51," ="," ",F51)</f>
         <v/>
       </c>
@@ -3324,11 +3361,11 @@
           <t>displayoperation2</t>
         </is>
       </c>
-      <c r="H52">
+      <c r="H52" s="1">
         <f>CONCATENATE(A52," ",D52," ",E52," ","="," ","'",G52,"'",";")</f>
         <v/>
       </c>
-      <c r="I52">
+      <c r="I52" s="2">
         <f>CONCATENATE("emxFramework.Range.",D52,,".",G52," ="," ",F52)</f>
         <v/>
       </c>
@@ -3360,11 +3397,11 @@
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53">
+      <c r="H53" s="1">
         <f>CONCATENATE(A53," ",D53," ",E53," ","="," ","'",G53,"'",";")</f>
         <v/>
       </c>
-      <c r="I53">
+      <c r="I53" s="2">
         <f>CONCATENATE("emxFramework.Range.",D53,,".",G53," ="," ",F53)</f>
         <v/>
       </c>
@@ -3404,11 +3441,11 @@
           <t>sealing1</t>
         </is>
       </c>
-      <c r="H54">
+      <c r="H54" s="1">
         <f>CONCATENATE(A54," ",D54," ",E54," ","="," ","'",G54,"'",";")</f>
         <v/>
       </c>
-      <c r="I54">
+      <c r="I54" s="2">
         <f>CONCATENATE("emxFramework.Range.",D54,,".",G54," ="," ",F54)</f>
         <v/>
       </c>
@@ -3448,11 +3485,11 @@
           <t>sealing2</t>
         </is>
       </c>
-      <c r="H55">
+      <c r="H55" s="1">
         <f>CONCATENATE(A55," ",D55," ",E55," ","="," ","'",G55,"'",";")</f>
         <v/>
       </c>
-      <c r="I55">
+      <c r="I55" s="2">
         <f>CONCATENATE("emxFramework.Range.",D55,,".",G55," ="," ",F55)</f>
         <v/>
       </c>
@@ -3492,11 +3529,11 @@
           <t>sealing3</t>
         </is>
       </c>
-      <c r="H56">
+      <c r="H56" s="1">
         <f>CONCATENATE(A56," ",D56," ",E56," ","="," ","'",G56,"'",";")</f>
         <v/>
       </c>
-      <c r="I56">
+      <c r="I56" s="2">
         <f>CONCATENATE("emxFramework.Range.",D56,,".",G56," ="," ",F56)</f>
         <v/>
       </c>
@@ -3536,11 +3573,11 @@
           <t>sealing4</t>
         </is>
       </c>
-      <c r="H57">
+      <c r="H57" s="1">
         <f>CONCATENATE(A57," ",D57," ",E57," ","="," ","'",G57,"'",";")</f>
         <v/>
       </c>
-      <c r="I57">
+      <c r="I57" s="2">
         <f>CONCATENATE("emxFramework.Range.",D57,,".",G57," ="," ",F57)</f>
         <v/>
       </c>
@@ -3572,11 +3609,11 @@
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
-      <c r="H58">
+      <c r="H58" s="1">
         <f>CONCATENATE(A58," ",D58," ",E58," ","="," ","'",G58,"'",";")</f>
         <v/>
       </c>
-      <c r="I58">
+      <c r="I58" s="2">
         <f>CONCATENATE("emxFramework.Range.",D58,,".",G58," ="," ",F58)</f>
         <v/>
       </c>
@@ -3616,11 +3653,11 @@
           <t>explosionproofgrade1</t>
         </is>
       </c>
-      <c r="H59">
+      <c r="H59" s="1">
         <f>CONCATENATE(A59," ",D59," ",E59," ","="," ","'",G59,"'",";")</f>
         <v/>
       </c>
-      <c r="I59">
+      <c r="I59" s="2">
         <f>CONCATENATE("emxFramework.Range.",D59,,".",G59," ="," ",F59)</f>
         <v/>
       </c>
@@ -3660,11 +3697,11 @@
           <t>explosionproofgrade2</t>
         </is>
       </c>
-      <c r="H60">
+      <c r="H60" s="1">
         <f>CONCATENATE(A60," ",D60," ",E60," ","="," ","'",G60,"'",";")</f>
         <v/>
       </c>
-      <c r="I60">
+      <c r="I60" s="2">
         <f>CONCATENATE("emxFramework.Range.",D60,,".",G60," ="," ",F60)</f>
         <v/>
       </c>
@@ -3704,11 +3741,11 @@
           <t>explosionproofgrade3</t>
         </is>
       </c>
-      <c r="H61">
+      <c r="H61" s="1">
         <f>CONCATENATE(A61," ",D61," ",E61," ","="," ","'",G61,"'",";")</f>
         <v/>
       </c>
-      <c r="I61">
+      <c r="I61" s="2">
         <f>CONCATENATE("emxFramework.Range.",D61,,".",G61," ="," ",F61)</f>
         <v/>
       </c>
@@ -3748,11 +3785,11 @@
           <t>explosionproofgrade4</t>
         </is>
       </c>
-      <c r="H62">
+      <c r="H62" s="1">
         <f>CONCATENATE(A62," ",D62," ",E62," ","="," ","'",G62,"'",";")</f>
         <v/>
       </c>
-      <c r="I62">
+      <c r="I62" s="2">
         <f>CONCATENATE("emxFramework.Range.",D62,,".",G62," ="," ",F62)</f>
         <v/>
       </c>
@@ -3792,11 +3829,11 @@
           <t>explosionproofgrade5</t>
         </is>
       </c>
-      <c r="H63">
+      <c r="H63" s="1">
         <f>CONCATENATE(A63," ",D63," ",E63," ","="," ","'",G63,"'",";")</f>
         <v/>
       </c>
-      <c r="I63">
+      <c r="I63" s="2">
         <f>CONCATENATE("emxFramework.Range.",D63,,".",G63," ="," ",F63)</f>
         <v/>
       </c>
@@ -3836,11 +3873,11 @@
           <t>explosionproofgrade6</t>
         </is>
       </c>
-      <c r="H64">
+      <c r="H64" s="1">
         <f>CONCATENATE(A64," ",D64," ",E64," ","="," ","'",G64,"'",";")</f>
         <v/>
       </c>
-      <c r="I64">
+      <c r="I64" s="2">
         <f>CONCATENATE("emxFramework.Range.",D64,,".",G64," ="," ",F64)</f>
         <v/>
       </c>
@@ -3872,11 +3909,11 @@
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65">
+      <c r="H65" s="1">
         <f>CONCATENATE(A65," ",D65," ",E65," ","="," ","'",G65,"'",";")</f>
         <v/>
       </c>
-      <c r="I65">
+      <c r="I65" s="2">
         <f>CONCATENATE("emxFramework.Range.",D65,,".",G65," ="," ",F65)</f>
         <v/>
       </c>
@@ -3916,11 +3953,11 @@
           <t>precision1</t>
         </is>
       </c>
-      <c r="H66">
+      <c r="H66" s="1">
         <f>CONCATENATE(A66," ",D66," ",E66," ","="," ","'",G66,"'",";")</f>
         <v/>
       </c>
-      <c r="I66">
+      <c r="I66" s="2">
         <f>CONCATENATE("emxFramework.Range.",D66,,".",G66," ="," ",F66)</f>
         <v/>
       </c>
@@ -3960,11 +3997,11 @@
           <t>precision2</t>
         </is>
       </c>
-      <c r="H67">
+      <c r="H67" s="1">
         <f>CONCATENATE(A67," ",D67," ",E67," ","="," ","'",G67,"'",";")</f>
         <v/>
       </c>
-      <c r="I67">
+      <c r="I67" s="2">
         <f>CONCATENATE("emxFramework.Range.",D67,,".",G67," ="," ",F67)</f>
         <v/>
       </c>
@@ -4004,11 +4041,11 @@
           <t>precision3</t>
         </is>
       </c>
-      <c r="H68">
+      <c r="H68" s="1">
         <f>CONCATENATE(A68," ",D68," ",E68," ","="," ","'",G68,"'",";")</f>
         <v/>
       </c>
-      <c r="I68">
+      <c r="I68" s="2">
         <f>CONCATENATE("emxFramework.Range.",D68,,".",G68," ="," ",F68)</f>
         <v/>
       </c>
@@ -4040,11 +4077,11 @@
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
-      <c r="H69">
+      <c r="H69" s="1">
         <f>CONCATENATE(A69," ",D69," ",E69," ","="," ","'",G69,"'",";")</f>
         <v/>
       </c>
-      <c r="I69">
+      <c r="I69" s="2">
         <f>CONCATENATE("emxFramework.Range.",D69,,".",G69," ="," ",F69)</f>
         <v/>
       </c>
@@ -4076,11 +4113,11 @@
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
-      <c r="H70">
+      <c r="H70" s="1">
         <f>CONCATENATE(A70," ",D70," ",E70," ","="," ","'",G70,"'",";")</f>
         <v/>
       </c>
-      <c r="I70">
+      <c r="I70" s="2">
         <f>CONCATENATE("emxFramework.Range.",D70,,".",G70," ="," ",F70)</f>
         <v/>
       </c>
@@ -4112,14 +4149,18 @@
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
-      <c r="H71">
+      <c r="H71" s="1">
         <f>CONCATENATE(A71," ",D71," ",E71," ","="," ","'",G71,"'",";")</f>
         <v/>
       </c>
-      <c r="I71">
+      <c r="I71" s="2">
         <f>CONCATENATE("emxFramework.Range.",D71,,".",G71," ="," ",F71)</f>
         <v/>
       </c>
+    </row>
+    <row r="72">
+      <c r="H72" s="1" t="n"/>
+      <c r="I72" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
